--- a/data/trans_dic/P04D$colectiva-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P04D$colectiva-Provincia-trans_dic.xlsx
@@ -675,29 +675,29 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.009869592679347353</v>
+        <v>0.01039057906618649</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
-        <v>0.007416324834646162</v>
+        <v>0.007492430065097825</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.003383648223416674</v>
+        <v>0.003374482590444488</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.009928116668776365</v>
+        <v>0.008944668791946091</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.008847979402881012</v>
+        <v>0.009366884008316841</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01084200880773776</v>
+        <v>0.01208475584814424</v>
       </c>
     </row>
     <row r="6">
@@ -708,29 +708,29 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05288610414216443</v>
+        <v>0.05503527947144804</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.05585937529366155</v>
+        <v>0.05886505417050703</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.02962789533554973</v>
+        <v>0.02806144210168611</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01580329434156049</v>
+        <v>0.01566749285015821</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05702138396129338</v>
+        <v>0.05485643295603308</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03357437910730255</v>
+        <v>0.033772221866687</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.007668048012492367</v>
+        <v>0.007753089532685369</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04279696939021595</v>
+        <v>0.04483054111829418</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01745179804250881</v>
+        <v>0.01673863042919212</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.002024095231065792</v>
+        <v>0.002021110710626699</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.007861153656616111</v>
+        <v>0.008993036942291812</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01430002151532518</v>
+        <v>0.01525853829514036</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004196606578099915</v>
+        <v>0.004137680016027455</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003990720290241572</v>
+        <v>0.003964995566361098</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01979186060472978</v>
+        <v>0.01905547590643569</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.004153630045479239</v>
+        <v>0.004981350549842305</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.008061155334241392</v>
+        <v>0.008434366288374391</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04962639546131797</v>
+        <v>0.04801037142876366</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01786687423028691</v>
+        <v>0.01694520239080604</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04530560217482427</v>
+        <v>0.0494042320691974</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04531097091202269</v>
+        <v>0.04518281880091445</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02523821948830687</v>
+        <v>0.02468742415206656</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01835306108873484</v>
+        <v>0.01818124458513825</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.04063351580231992</v>
+        <v>0.0402635419334471</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01636934485245771</v>
+        <v>0.01773017653717677</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02874711050148375</v>
+        <v>0.02654463271281105</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.02574949682570847</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09024238539380894</v>
+        <v>0.09024238539380892</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.01446847248348846</v>
@@ -869,7 +869,7 @@
         <v>0.02004867375343844</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1144316698845753</v>
+        <v>0.1144316698845754</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.01464180211685123</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.005762105889672675</v>
+        <v>0.003073562608783843</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01203600260493003</v>
+        <v>0.01239149284108147</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06358022502502893</v>
+        <v>0.0623770455620531</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00315532979783016</v>
+        <v>0.003179355868643126</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.008582254971856088</v>
+        <v>0.008403997685228466</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08946289095795125</v>
+        <v>0.0898840332514978</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006074922537280775</v>
+        <v>0.007401309298318206</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01341999104797957</v>
+        <v>0.01276077968975315</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.08324063288618141</v>
+        <v>0.08320405524613472</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03349572011185536</v>
+        <v>0.0301239482725258</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.04773410098108499</v>
+        <v>0.04763509890099574</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1294041733894939</v>
+        <v>0.1271257503349529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03530906594243215</v>
+        <v>0.03741094179539767</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04042352154113907</v>
+        <v>0.03972971838234879</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1462414451975229</v>
+        <v>0.1473076959775312</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02760388002016473</v>
+        <v>0.02926614620522617</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0366095087567901</v>
+        <v>0.0376579516054851</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1255110309951852</v>
+        <v>0.1258060444033028</v>
       </c>
     </row>
     <row r="13">
@@ -987,7 +987,7 @@
         <v>0.04797506365093089</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.09506761996478504</v>
+        <v>0.09506761996478505</v>
       </c>
     </row>
     <row r="14">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03744796850217948</v>
+        <v>0.03594427723640879</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02786150044961964</v>
+        <v>0.02837227834967642</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06841283239578115</v>
+        <v>0.06629888077070516</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01991258002112183</v>
+        <v>0.01992278437139248</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02961205674713892</v>
+        <v>0.02994332332494073</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07087328937455459</v>
+        <v>0.07026758247305256</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03329209908894189</v>
+        <v>0.03252498204573804</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.03300608197811473</v>
+        <v>0.03332575510810225</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.07702250000989025</v>
+        <v>0.07677229360447259</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08583390198087054</v>
+        <v>0.08318074642550168</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07257610682489937</v>
+        <v>0.07384794191510084</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1353992597057727</v>
+        <v>0.1349108540452902</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.05633651476512097</v>
+        <v>0.05742143006061119</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08117769967494888</v>
+        <v>0.08228218781764228</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1189669314884895</v>
+        <v>0.1182855589771395</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06381122181974692</v>
+        <v>0.06326283952015478</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06684517838982221</v>
+        <v>0.06902098818185438</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1177098461598758</v>
+        <v>0.121204991673142</v>
       </c>
     </row>
     <row r="16">
@@ -1107,12 +1107,12 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07656057537192903</v>
+        <v>0.0705717389647989</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.08293535935091745</v>
+        <v>0.08015551280183039</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09105167692717038</v>
+        <v>0.08778075109821583</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1138,27 +1138,27 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1688901430483513</v>
+        <v>0.1619585923618074</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.1780124215801087</v>
+        <v>0.1782409766220836</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.01958982701011493</v>
+        <v>0.01934949543367193</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.007925928741639001</v>
+        <v>0.009688633647007176</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1540727703144817</v>
+        <v>0.1529031956587112</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.008453752234864602</v>
+        <v>0.01213028133024249</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.005922214735553758</v>
+        <v>0.005726272978460681</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.1018265868766551</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.3029449701737686</v>
+        <v>0.3029449701737685</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.03990928318282946</v>
@@ -1197,7 +1197,7 @@
         <v>0.1237619026847036</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.2845253587814274</v>
+        <v>0.2845253587814275</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02583915645040968</v>
+        <v>0.02613925069536297</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1084178779731142</v>
+        <v>0.1070274306844623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2239598403619669</v>
+        <v>0.2198549628989506</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.01379937029433157</v>
+        <v>0.01449665241391938</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06921465080890442</v>
+        <v>0.0711170725027488</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2617496296524636</v>
+        <v>0.2589742892110315</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02578998800551946</v>
+        <v>0.02268656643676259</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.09521365166884435</v>
+        <v>0.09807281580537623</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.250911866880027</v>
+        <v>0.2505478525164037</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.08648431417649499</v>
+        <v>0.08387158679868516</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1906963822587136</v>
+        <v>0.1928277658131664</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3249815888244368</v>
+        <v>0.3215672564011564</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.05926108247724782</v>
+        <v>0.05942277315998452</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1418790630636719</v>
+        <v>0.143716374977488</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.352326365733865</v>
+        <v>0.3507172861073603</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.0609854180882432</v>
+        <v>0.05912462604569142</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1522210840681088</v>
+        <v>0.1558047081851975</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3179489663619562</v>
+        <v>0.3210725006853239</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>0.03118672167972934</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.05781444156278877</v>
+        <v>0.05781444156278876</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>0.00576804487930546</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.001644450958599769</v>
+        <v>0.002606874025980547</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02154636663944465</v>
+        <v>0.02171632030962511</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.04647899075727696</v>
+        <v>0.04873445929091136</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.00136528205682518</v>
+        <v>0.00135928199813163</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01977740457997951</v>
+        <v>0.01848692227486712</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.04473092482398552</v>
+        <v>0.04451938761222381</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.002750866627831547</v>
+        <v>0.002855001628820542</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02345368885954736</v>
+        <v>0.02384212626965332</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04946383109213248</v>
+        <v>0.05018927079151678</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01533757944708654</v>
+        <v>0.01663347761307446</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05523134648482931</v>
+        <v>0.05353561262768182</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08588523178678334</v>
+        <v>0.08561655037070633</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.01155590301257851</v>
+        <v>0.01133058194487726</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04789646814957304</v>
+        <v>0.04530848395513761</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.07390033434779263</v>
+        <v>0.07331398657869445</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01137936690571019</v>
+        <v>0.01158660173777039</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.04493183441187037</v>
+        <v>0.04434925006810658</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.07335572617520954</v>
+        <v>0.07350028304242136</v>
       </c>
     </row>
     <row r="25">
@@ -1426,31 +1426,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01183791619105762</v>
+        <v>0.01287326841402965</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.002455032240260649</v>
+        <v>0.002439181836141027</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003076833871281144</v>
+        <v>0.002861468105394093</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01617057367356459</v>
+        <v>0.01599879613324832</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.001403094040104128</v>
+        <v>0.001404170582490392</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.007314242422439048</v>
+        <v>0.007472952425674607</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01583133757924545</v>
+        <v>0.01653259794785604</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.00326710728362091</v>
+        <v>0.00292671897813609</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.00665182218575337</v>
+        <v>0.006529210450827041</v>
       </c>
     </row>
     <row r="27">
@@ -1461,31 +1461,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03356142798697202</v>
+        <v>0.03280093039823211</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01777949906485</v>
+        <v>0.01611076709823517</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01753830398031102</v>
+        <v>0.01783880451832029</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.03951461525691566</v>
+        <v>0.03804425442913691</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01332217385887787</v>
+        <v>0.01334372164787788</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.02067766990981064</v>
+        <v>0.02107022087626381</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.03084021355628978</v>
+        <v>0.03165655886925123</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.01189622714913459</v>
+        <v>0.01126568754711956</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01590491566611805</v>
+        <v>0.0161209422417263</v>
       </c>
     </row>
     <row r="28">
@@ -1506,7 +1506,7 @@
         <v>0.02798933878433816</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.05879632095483153</v>
+        <v>0.05879632095483152</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.02689166906771153</v>
@@ -1524,7 +1524,7 @@
         <v>0.02636716231506373</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.06005392701313575</v>
+        <v>0.06005392701313574</v>
       </c>
     </row>
     <row r="29">
@@ -1535,31 +1535,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0259199288011123</v>
+        <v>0.02515502401502953</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.02311846522341529</v>
+        <v>0.02292903123459043</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05147590474289751</v>
+        <v>0.05096337191556996</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.02203091143182783</v>
+        <v>0.02134580356298643</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.02002681159401866</v>
+        <v>0.01936549372209201</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.05481839067662377</v>
+        <v>0.05510120665137194</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.02517127709178358</v>
+        <v>0.02521106298712206</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.02277001817482422</v>
+        <v>0.02293270302368387</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.05457759291191023</v>
+        <v>0.05501806435664433</v>
       </c>
     </row>
     <row r="30">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.03797670867510351</v>
+        <v>0.03738986369802896</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.03480126139815361</v>
+        <v>0.03441595435657473</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.06871395380824424</v>
+        <v>0.06750251720651521</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.03327376803973597</v>
+        <v>0.03286093385893399</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.03048360789579132</v>
+        <v>0.0307555107457878</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.0686737407626877</v>
+        <v>0.06837085943372589</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.03333089214003773</v>
+        <v>0.0335907406379239</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.03037811011342038</v>
+        <v>0.03063721549268442</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.06567318986715388</v>
+        <v>0.06548915967923617</v>
       </c>
     </row>
     <row r="31">
@@ -1827,29 +1827,29 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2891</v>
+        <v>3044</v>
       </c>
       <c r="D6" s="6" t="inlineStr"/>
       <c r="E6" s="6" t="n">
-        <v>2365</v>
+        <v>2389</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3138</v>
+        <v>2827</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5124</v>
+        <v>5424</v>
       </c>
       <c r="J6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6884</v>
+        <v>7673</v>
       </c>
     </row>
     <row r="7">
@@ -1860,29 +1860,29 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>15492</v>
+        <v>16122</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>17810</v>
+        <v>18769</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8477</v>
+        <v>8029</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4562</v>
+        <v>4523</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18022</v>
+        <v>17338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>19442</v>
+        <v>19556</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4466</v>
+        <v>4516</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>27172</v>
+        <v>28463</v>
       </c>
     </row>
     <row r="8">
@@ -1967,31 +1967,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>8789</v>
+        <v>8430</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4171</v>
+        <v>4772</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>7460</v>
+        <v>7960</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2195</v>
+        <v>2164</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2181</v>
+        <v>2167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>20292</v>
+        <v>19537</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4260</v>
+        <v>5109</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>8683</v>
+        <v>9085</v>
       </c>
     </row>
     <row r="11">
@@ -2002,31 +2002,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24992</v>
+        <v>24178</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8979</v>
+        <v>8516</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>24041</v>
+        <v>26216</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>23637</v>
+        <v>23570</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>13202</v>
+        <v>12914</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10030</v>
+        <v>9936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41660</v>
+        <v>41280</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>16789</v>
+        <v>18185</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>30965</v>
+        <v>28592</v>
       </c>
     </row>
     <row r="12">
@@ -2111,31 +2111,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1867</v>
+        <v>996</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3834</v>
+        <v>3947</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>20022</v>
+        <v>19643</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2886</v>
+        <v>2826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>31774</v>
+        <v>31924</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4040</v>
+        <v>4922</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8788</v>
+        <v>8357</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>55777</v>
+        <v>55753</v>
       </c>
     </row>
     <row r="15">
@@ -2146,31 +2146,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10854</v>
+        <v>9762</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15206</v>
+        <v>15175</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>40750</v>
+        <v>40033</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12041</v>
+        <v>12758</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13595</v>
+        <v>13361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>51940</v>
+        <v>52318</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>18358</v>
+        <v>19464</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23975</v>
+        <v>24661</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>84101</v>
+        <v>84299</v>
       </c>
     </row>
     <row r="16">
@@ -2255,31 +2255,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>13969</v>
+        <v>13408</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10308</v>
+        <v>10497</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25528</v>
+        <v>24739</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>7745</v>
+        <v>7749</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11468</v>
+        <v>11597</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>29659</v>
+        <v>29405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>25368</v>
+        <v>24783</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24994</v>
+        <v>25236</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>60973</v>
+        <v>60774</v>
       </c>
     </row>
     <row r="19">
@@ -2290,31 +2290,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32018</v>
+        <v>31028</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26851</v>
+        <v>27321</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>50524</v>
+        <v>50341</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>21912</v>
+        <v>22334</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>31439</v>
+        <v>31866</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>49785</v>
+        <v>49500</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>48622</v>
+        <v>48204</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>50618</v>
+        <v>52266</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93181</v>
+        <v>95948</v>
       </c>
     </row>
     <row r="20">
@@ -2399,12 +2399,12 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16278</v>
+        <v>15005</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>18212</v>
+        <v>17601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2413,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>39353</v>
+        <v>37940</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
@@ -2430,27 +2430,27 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35909</v>
+        <v>34435</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>39090</v>
+        <v>39140</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4282</v>
+        <v>4230</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1811</v>
+        <v>2214</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>66592</v>
+        <v>66086</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>3633</v>
+        <v>5214</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2571</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="24">
@@ -2535,31 +2535,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>7079</v>
+        <v>7162</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>28527</v>
+        <v>28161</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>60627</v>
+        <v>59516</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3851</v>
+        <v>4045</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>18904</v>
+        <v>19423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>69036</v>
+        <v>68304</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>14263</v>
+        <v>12547</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>51057</v>
+        <v>52590</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>134102</v>
+        <v>133907</v>
       </c>
     </row>
     <row r="27">
@@ -2570,31 +2570,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>23695</v>
+        <v>22979</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>50177</v>
+        <v>50737</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>87975</v>
+        <v>87051</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>16537</v>
+        <v>16582</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>38749</v>
+        <v>39251</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>92926</v>
+        <v>92502</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>33727</v>
+        <v>32698</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>81627</v>
+        <v>83548</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>169930</v>
+        <v>171599</v>
       </c>
     </row>
     <row r="28">
@@ -2679,31 +2679,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>1090</v>
+        <v>1728</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>14146</v>
+        <v>14258</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>33109</v>
+        <v>34716</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>13672</v>
+        <v>12780</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>34348</v>
+        <v>34186</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>3732</v>
+        <v>3873</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>31612</v>
+        <v>32136</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>73218</v>
+        <v>74292</v>
       </c>
     </row>
     <row r="31">
@@ -2714,31 +2714,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>10166</v>
+        <v>11024</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>36263</v>
+        <v>35149</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>61180</v>
+        <v>60989</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>8018</v>
+        <v>7862</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>33111</v>
+        <v>31321</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>56747</v>
+        <v>56296</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>15438</v>
+        <v>15719</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>60561</v>
+        <v>59776</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>108583</v>
+        <v>108797</v>
       </c>
     </row>
     <row r="32">
@@ -2823,31 +2823,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>9194</v>
+        <v>9999</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2448</v>
+        <v>2277</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>13322</v>
+        <v>13181</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>6081</v>
+        <v>6212</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>25339</v>
+        <v>26461</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>5243</v>
+        <v>4697</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>10823</v>
+        <v>10623</v>
       </c>
     </row>
     <row r="35">
@@ -2858,31 +2858,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>26067</v>
+        <v>25476</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>13843</v>
+        <v>12544</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>13956</v>
+        <v>14195</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>32554</v>
+        <v>31343</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>11006</v>
+        <v>11024</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>17190</v>
+        <v>17516</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>49361</v>
+        <v>50668</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>19090</v>
+        <v>18079</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>25878</v>
+        <v>26230</v>
       </c>
     </row>
     <row r="36">
@@ -2967,31 +2967,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>88638</v>
+        <v>86022</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>78472</v>
+        <v>77829</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>181297</v>
+        <v>179492</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>78300</v>
+        <v>75865</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>70986</v>
+        <v>68642</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>204343</v>
+        <v>205398</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>175539</v>
+        <v>175817</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>157999</v>
+        <v>159128</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>395667</v>
+        <v>398860</v>
       </c>
     </row>
     <row r="39">
@@ -3002,31 +3002,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>129868</v>
+        <v>127862</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>118128</v>
+        <v>116820</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>242009</v>
+        <v>237743</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>118258</v>
+        <v>116791</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>108050</v>
+        <v>109014</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>255991</v>
+        <v>254862</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>232443</v>
+        <v>234255</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>210790</v>
+        <v>212588</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>476106</v>
+        <v>474772</v>
       </c>
     </row>
     <row r="40">
